--- a/ClashOfClans-Api/Teste.xlsx
+++ b/ClashOfClans-Api/Teste.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#PRUGRUVRU</t>
+          <t>#Y29C90P0Y</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bart</t>
+          <t>elton</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -443,18 +443,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'id': 29000015, 'name': 'Master League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png'}}</t>
+          <t>{'id': 29000020, 'name': 'Titan League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/llpWocHlOoFliwyaEx5Z6dmoZG4u4NmxwpF-Jg7su7Q.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/llpWocHlOoFliwyaEx5Z6dmoZG4u4NmxwpF-Jg7su7Q.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/llpWocHlOoFliwyaEx5Z6dmoZG4u4NmxwpF-Jg7su7Q.png'}}</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3063</v>
+        <v>4416</v>
       </c>
       <c r="H2" t="n">
-        <v>2594</v>
+        <v>3811</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -463,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>897</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -475,44 +475,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#9LYRQCCYY</t>
+          <t>#L9Q8L0VV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bere - vila</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>leader</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'id': 29000015, 'name': 'Master League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png'}}</t>
+          <t>{'id': 29000016, 'name': 'Champion League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/JmmTbspV86xBigM7OP5_SjsEDPuE7oXjZC9aOy8xO3s.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/JmmTbspV86xBigM7OP5_SjsEDPuE7oXjZC9aOy8xO3s.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/JmmTbspV86xBigM7OP5_SjsEDPuE7oXjZC9aOy8xO3s.png'}}</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3038</v>
+        <v>3274</v>
       </c>
       <c r="H3" t="n">
-        <v>2688</v>
+        <v>3657</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>505</v>
+        <v>2130</v>
       </c>
       <c r="L3" t="n">
-        <v>288</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -521,21 +521,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#82CPVQQ9G</t>
+          <t>#Q0YLJRVR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Katrinna</t>
+          <t>Haazer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2987</v>
+        <v>3139</v>
       </c>
       <c r="H4" t="n">
-        <v>2152</v>
+        <v>2870</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>8694</v>
+        <v>1690</v>
       </c>
       <c r="L4" t="n">
-        <v>2142</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5">
@@ -567,21 +567,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#Q0YLJRVR</t>
+          <t>#82CPVQQ9G</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haazer</t>
+          <t>Katrinna</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2954</v>
+        <v>2928</v>
       </c>
       <c r="H5" t="n">
-        <v>2780</v>
+        <v>2310</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3353</v>
+        <v>1964</v>
       </c>
       <c r="L5" t="n">
-        <v>3560</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6">
@@ -613,12 +613,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#2CC0V9PV8</t>
+          <t>#LJU0U288R</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Katrinna 2</t>
+          <t>GILBERTO67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2905</v>
+        <v>2878</v>
       </c>
       <c r="H6" t="n">
-        <v>2189</v>
+        <v>3207</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>1659</v>
+        <v>375</v>
       </c>
       <c r="L6" t="n">
-        <v>1552</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="7">
@@ -659,12 +659,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#9JYUYLY0J</t>
+          <t>#2CC0V9PV8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>dreeny</t>
+          <t>Katrinna 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -673,18 +673,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'id': 29000013, 'name': 'Master League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png'}}</t>
+          <t>{'id': 29000014, 'name': 'Master League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/4wtS1stWZQ-1VJ5HaCuDPfdhTWjeZs_jPar_YPzK6Lg.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/4wtS1stWZQ-1VJ5HaCuDPfdhTWjeZs_jPar_YPzK6Lg.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/4wtS1stWZQ-1VJ5HaCuDPfdhTWjeZs_jPar_YPzK6Lg.png'}}</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2758</v>
+        <v>2824</v>
       </c>
       <c r="H7" t="n">
-        <v>2434</v>
+        <v>2232</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -693,10 +693,10 @@
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="L7" t="n">
-        <v>962</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8">
@@ -705,21 +705,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#L9Q8L0VV</t>
+          <t>#P2RGP9JYU</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>EMERSON</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>leader</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2674</v>
+        <v>2639</v>
       </c>
       <c r="H8" t="n">
-        <v>3537</v>
+        <v>2591</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -739,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>15149</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4286</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -751,44 +751,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#P2RGP9JYU</t>
+          <t>#89LQVVUUJ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EMERSON</t>
+          <t>cesar comin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
+          <t>{'id': 29000013, 'name': 'Master League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png'}}</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2522</v>
+        <v>2602</v>
       </c>
       <c r="H9" t="n">
-        <v>2626</v>
+        <v>2941</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>37</v>
+        <v>2486</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10">
@@ -797,44 +797,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#9LPGGJJVJ</t>
+          <t>#9JYUYLY0J</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dynaamo</t>
+          <t>dreeny</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
+          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2510</v>
+        <v>2573</v>
       </c>
       <c r="H10" t="n">
-        <v>2287</v>
+        <v>2463</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -843,21 +843,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#80GUGJY28</t>
+          <t>#PQ9VRYGQL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Layd Katrinna</t>
+          <t>E M E R S O N</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -865,22 +865,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2463</v>
+        <v>2528</v>
       </c>
       <c r="H11" t="n">
-        <v>1680</v>
+        <v>3146</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="L11" t="n">
-        <v>1475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -889,44 +889,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#LQUJVPV98</t>
+          <t>#80GUGJY28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vila Ercolis 32</t>
+          <t>Layd Katrinna</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
+          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2325</v>
+        <v>2521</v>
       </c>
       <c r="H12" t="n">
-        <v>2472</v>
+        <v>1659</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>477</v>
+        <v>48</v>
       </c>
       <c r="L12" t="n">
-        <v>1924</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -935,32 +935,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#92R82GCU</t>
+          <t>#9LPGGJJVJ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Crena</t>
+          <t>Dynaamo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
+          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2314</v>
+        <v>2455</v>
       </c>
       <c r="H13" t="n">
-        <v>2658</v>
+        <v>2328</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -981,21 +981,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#8QVRRPQVU</t>
+          <t>#92R82GCU</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>☆_BLACK_☆</t>
+          <t>Crena</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1003,22 +1003,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2305</v>
+        <v>2340</v>
       </c>
       <c r="H14" t="n">
-        <v>1803</v>
+        <v>2597</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" t="n">
-        <v>499</v>
+        <v>36</v>
       </c>
       <c r="L14" t="n">
-        <v>186</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2298</v>
+        <v>2329</v>
       </c>
       <c r="H15" t="n">
-        <v>2144</v>
+        <v>2237</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>629</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16">
@@ -1073,21 +1073,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#PQ9VRYGQL</t>
+          <t>#9LVPURG9P</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E M E R S O N</t>
+          <t>SkyNearth</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2284</v>
+        <v>2324</v>
       </c>
       <c r="H16" t="n">
-        <v>3147</v>
+        <v>2595</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>126</v>
+        <v>1194</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="17">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#YGR828R0</t>
+          <t>#282QLU28P</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GRADISSE</t>
+          <t>*P3dr0z*</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1133,18 +1133,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
+          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2280</v>
+        <v>2103</v>
       </c>
       <c r="H17" t="n">
-        <v>1845</v>
+        <v>2322</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1183,11 +1183,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
+          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2258</v>
+        <v>2085</v>
       </c>
       <c r="H18" t="n">
         <v>2934</v>
@@ -1196,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#99GY0VJQG</t>
+          <t>#8P28LJVCR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Emerson TH10</t>
+          <t>Lady Katrina 2✨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1225,30 +1225,30 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
+          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2240</v>
+        <v>2066</v>
       </c>
       <c r="H19" t="n">
-        <v>1547</v>
+        <v>1337</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#282QLU28P</t>
+          <t>#8QVRRPQVU</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>*P3dr0z*</t>
+          <t>☆_BLACK_☆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2148</v>
+        <v>1984</v>
       </c>
       <c r="H20" t="n">
-        <v>2322</v>
+        <v>1761</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L20" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#YVJ2RC0U0</t>
+          <t>#LQUJVPV98</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ARRØW</t>
+          <t>Vila Ercolis 32</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1317,30 +1317,30 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2141</v>
+        <v>1945</v>
       </c>
       <c r="H21" t="n">
-        <v>1996</v>
+        <v>2560</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
       </c>
       <c r="J21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
-        <v>138</v>
+        <v>370</v>
       </c>
       <c r="L21" t="n">
-        <v>217</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
@@ -1349,44 +1349,44 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#9LVPURG9P</t>
+          <t>#99GY0VJQG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SkyNearth</t>
+          <t>Emerson TH10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2124</v>
+        <v>1943</v>
       </c>
       <c r="H22" t="n">
-        <v>2549</v>
+        <v>1616</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
       </c>
       <c r="J22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K22" t="n">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>katrinna</t>
+          <t>Katrinna 3✨✨✨</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1409,30 +1409,30 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2016</v>
+        <v>1872</v>
       </c>
       <c r="H23" t="n">
-        <v>1505</v>
+        <v>1593</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>1107</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
@@ -1441,44 +1441,44 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#89LQVVUUJ</t>
+          <t>#CJGUU9CQ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cesar comin</t>
+          <t>✴️EXU✴️</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2010</v>
+        <v>1853</v>
       </c>
       <c r="H24" t="n">
-        <v>2777</v>
+        <v>245</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K24" t="n">
-        <v>4282</v>
+        <v>523</v>
       </c>
       <c r="L24" t="n">
-        <v>2326</v>
+        <v>869</v>
       </c>
     </row>
     <row r="25">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#8P28LJVCR</t>
+          <t>#YVJ2RC0U0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Afrodite✨</t>
+          <t>ARRØW</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1509,22 +1509,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1937</v>
+        <v>1847</v>
       </c>
       <c r="H25" t="n">
-        <v>1359</v>
+        <v>2057</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>630</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#YJL008YPL</t>
+          <t>#L82LPQYG0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>*_* Master</t>
+          <t>Dynamo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1547,30 +1547,30 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000008, 'name': 'Gold League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png'}}</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1881</v>
+        <v>1739</v>
       </c>
       <c r="H26" t="n">
-        <v>2194</v>
+        <v>1501</v>
       </c>
       <c r="I26" t="n">
         <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#9URUCQ9R9</t>
+          <t>#LJ2282YLL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CHARADA ^-^</t>
+          <t>sadraque</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1593,30 +1593,30 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000008, 'name': 'Gold League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png'}}</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1816</v>
+        <v>1699</v>
       </c>
       <c r="H27" t="n">
-        <v>1997</v>
+        <v>2538</v>
       </c>
       <c r="I27" t="n">
         <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L27" t="n">
-        <v>93</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28">
@@ -1639,27 +1639,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1774</v>
+        <v>1696</v>
       </c>
       <c r="H28" t="n">
-        <v>2069</v>
+        <v>2197</v>
       </c>
       <c r="I28" t="n">
         <v>27</v>
       </c>
       <c r="J28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1671,38 +1671,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#YYGVYG0QJ</t>
+          <t>#2LYP2R02Q</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BR naruto</t>
+          <t>&lt;c2&gt;jonathan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000008, 'name': 'Gold League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png'}}</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1762</v>
+        <v>1638</v>
       </c>
       <c r="H29" t="n">
-        <v>1864</v>
+        <v>1833</v>
       </c>
       <c r="I29" t="n">
         <v>28</v>
       </c>
       <c r="J29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1717,21 +1717,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#2LYP2R02Q</t>
+          <t>#PRUGRUVRU</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>&lt;c2&gt;jonathan</t>
+          <t>Bart</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1645</v>
+        <v>1622</v>
       </c>
       <c r="H30" t="n">
-        <v>1833</v>
+        <v>2652</v>
       </c>
       <c r="I30" t="n">
         <v>29</v>
@@ -1751,10 +1751,10 @@
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="L30" t="n">
-        <v>31</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31">
@@ -1763,12 +1763,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#YQLP2V8JV</t>
+          <t>#PYCPUJPJ2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Henrique ♈</t>
+          <t>ARQUEIRO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1785,22 +1785,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1565</v>
+        <v>1622</v>
       </c>
       <c r="H31" t="n">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="I31" t="n">
         <v>30</v>
       </c>
       <c r="J31" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K31" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#PYCPUJPJ2</t>
+          <t>#L0C9CVL2U</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARQUEIRO</t>
+          <t>Emerson TH8</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1506</v>
+        <v>1326</v>
       </c>
       <c r="H32" t="n">
-        <v>1553</v>
+        <v>1209</v>
       </c>
       <c r="I32" t="n">
         <v>31</v>
       </c>
       <c r="J32" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
@@ -1855,44 +1855,44 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#CJGUU9CQ</t>
+          <t>#LU20J08CL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>⭐BRUNOGREGO⭐</t>
+          <t>Pedro 3°</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
+          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1499</v>
+        <v>1200</v>
       </c>
       <c r="H33" t="n">
-        <v>50</v>
+        <v>1415</v>
       </c>
       <c r="I33" t="n">
         <v>32</v>
       </c>
       <c r="J33" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34">
@@ -1901,32 +1901,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#L82LPQYG0</t>
+          <t>#L9CR28C90</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dynamo</t>
+          <t>Pedro 2°</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{'id': 29000007, 'name': 'Gold League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png'}}</t>
+          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1483</v>
+        <v>1140</v>
       </c>
       <c r="H34" t="n">
-        <v>1501</v>
+        <v>1658</v>
       </c>
       <c r="I34" t="n">
         <v>33</v>
@@ -1935,10 +1935,10 @@
         <v>32</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L34" t="n">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#LJ2282YLL</t>
+          <t>#LRP88V80U</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sadraque</t>
+          <t>ＫＡＫＡＳＨＡ♡</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1961,30 +1961,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'id': 29000007, 'name': 'Gold League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png'}}</t>
+          <t>{'id': 29000004, 'name': 'Silver League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png'}}</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1387</v>
+        <v>971</v>
       </c>
       <c r="H35" t="n">
-        <v>2575</v>
+        <v>1924</v>
       </c>
       <c r="I35" t="n">
         <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36">
@@ -1993,32 +1993,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#L9CR28C90</t>
+          <t>#L922U8U29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pedro 2°</t>
+          <t>dynamou</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
+          <t>{'id': 29000003, 'name': 'Bronze League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png'}}</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1327</v>
+        <v>726</v>
       </c>
       <c r="H36" t="n">
-        <v>1556</v>
+        <v>170</v>
       </c>
       <c r="I36" t="n">
         <v>35</v>
@@ -2027,10 +2027,10 @@
         <v>35</v>
       </c>
       <c r="K36" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#L0C9CVL2U</t>
+          <t>#LUR8U20JY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Emerson TH8</t>
+          <t>Pedro 4°</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2053,18 +2053,18 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
+          <t>{'id': 29000003, 'name': 'Bronze League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png'}}</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1172</v>
+        <v>617</v>
       </c>
       <c r="H37" t="n">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>36</v>
@@ -2076,145 +2076,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>#LRP88V80U</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>ＫＡＫＡＳＨＡ♡</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>member</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>45</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1144</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1825</v>
-      </c>
-      <c r="I38" t="n">
-        <v>37</v>
-      </c>
-      <c r="J38" t="n">
-        <v>37</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>#LU20J08CL</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Pedro 3°</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>39</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>{'id': 29000005, 'name': 'Silver League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/8OhXcwDJkenBH2kPH73eXftFOpHHRF-b32n0yrTqC44.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/8OhXcwDJkenBH2kPH73eXftFOpHHRF-b32n0yrTqC44.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/8OhXcwDJkenBH2kPH73eXftFOpHHRF-b32n0yrTqC44.png'}}</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>974</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1058</v>
-      </c>
-      <c r="I39" t="n">
-        <v>38</v>
-      </c>
-      <c r="J39" t="n">
-        <v>38</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>#L922U8U29</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>dynamou</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>member</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>30</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>{'id': 29000004, 'name': 'Silver League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png'}}</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>762</v>
-      </c>
-      <c r="H40" t="n">
-        <v>170</v>
-      </c>
-      <c r="I40" t="n">
-        <v>39</v>
-      </c>
-      <c r="J40" t="n">
-        <v>39</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/ClashOfClans-Api/Teste.xlsx
+++ b/ClashOfClans-Api/Teste.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#Y29C90P0Y</t>
+          <t>#PRUGRUVRU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>elton</t>
+          <t>Bart</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -443,18 +443,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'id': 29000020, 'name': 'Titan League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/llpWocHlOoFliwyaEx5Z6dmoZG4u4NmxwpF-Jg7su7Q.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/llpWocHlOoFliwyaEx5Z6dmoZG4u4NmxwpF-Jg7su7Q.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/llpWocHlOoFliwyaEx5Z6dmoZG4u4NmxwpF-Jg7su7Q.png'}}</t>
+          <t>{'id': 29000015, 'name': 'Master League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png'}}</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4416</v>
+        <v>3063</v>
       </c>
       <c r="H2" t="n">
-        <v>3811</v>
+        <v>2594</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -463,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="3">
@@ -475,44 +475,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#L9Q8L0VV</t>
+          <t>#9LYRQCCYY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>bere - vila</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>leader</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'id': 29000016, 'name': 'Champion League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/JmmTbspV86xBigM7OP5_SjsEDPuE7oXjZC9aOy8xO3s.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/JmmTbspV86xBigM7OP5_SjsEDPuE7oXjZC9aOy8xO3s.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/JmmTbspV86xBigM7OP5_SjsEDPuE7oXjZC9aOy8xO3s.png'}}</t>
+          <t>{'id': 29000015, 'name': 'Master League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/olUfFb1wscIH8hqECAdWbdB6jPm9R8zzEyHIzyBgRXc.png'}}</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3274</v>
+        <v>3038</v>
       </c>
       <c r="H3" t="n">
-        <v>3657</v>
+        <v>2688</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2130</v>
+        <v>505</v>
       </c>
       <c r="L3" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
@@ -521,21 +521,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#Q0YLJRVR</t>
+          <t>#82CPVQQ9G</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Haazer</t>
+          <t>Katrinna</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3139</v>
+        <v>2987</v>
       </c>
       <c r="H4" t="n">
-        <v>2870</v>
+        <v>2152</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1690</v>
+        <v>8694</v>
       </c>
       <c r="L4" t="n">
-        <v>1440</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="5">
@@ -567,21 +567,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#82CPVQQ9G</t>
+          <t>#Q0YLJRVR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Katrinna</t>
+          <t>Haazer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2928</v>
+        <v>2954</v>
       </c>
       <c r="H5" t="n">
-        <v>2310</v>
+        <v>2780</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>1964</v>
+        <v>3353</v>
       </c>
       <c r="L5" t="n">
-        <v>538</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="6">
@@ -613,12 +613,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#LJU0U288R</t>
+          <t>#2CC0V9PV8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GILBERTO67</t>
+          <t>Katrinna 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2878</v>
+        <v>2905</v>
       </c>
       <c r="H6" t="n">
-        <v>3207</v>
+        <v>2189</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>375</v>
+        <v>1659</v>
       </c>
       <c r="L6" t="n">
-        <v>1230</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="7">
@@ -659,12 +659,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#2CC0V9PV8</t>
+          <t>#9JYUYLY0J</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Katrinna 2</t>
+          <t>dreeny</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -673,18 +673,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'id': 29000014, 'name': 'Master League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/4wtS1stWZQ-1VJ5HaCuDPfdhTWjeZs_jPar_YPzK6Lg.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/4wtS1stWZQ-1VJ5HaCuDPfdhTWjeZs_jPar_YPzK6Lg.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/4wtS1stWZQ-1VJ5HaCuDPfdhTWjeZs_jPar_YPzK6Lg.png'}}</t>
+          <t>{'id': 29000013, 'name': 'Master League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png'}}</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2824</v>
+        <v>2758</v>
       </c>
       <c r="H7" t="n">
-        <v>2232</v>
+        <v>2434</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -693,10 +693,10 @@
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="L7" t="n">
-        <v>474</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8">
@@ -705,21 +705,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#P2RGP9JYU</t>
+          <t>#L9Q8L0VV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EMERSON</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>leader</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2639</v>
+        <v>2674</v>
       </c>
       <c r="H8" t="n">
-        <v>2591</v>
+        <v>3537</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -739,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15149</v>
       </c>
       <c r="L8" t="n">
-        <v>172</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="9">
@@ -751,44 +751,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#89LQVVUUJ</t>
+          <t>#P2RGP9JYU</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cesar comin</t>
+          <t>EMERSON</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'id': 29000013, 'name': 'Master League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/pSXfKvBKSgtvfOY3xKkgFaRQi0WcE28s3X35ywbIluY.png'}}</t>
+          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2602</v>
+        <v>2522</v>
       </c>
       <c r="H9" t="n">
-        <v>2941</v>
+        <v>2626</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>2486</v>
+        <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -797,44 +797,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#9JYUYLY0J</t>
+          <t>#9LPGGJJVJ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>dreeny</t>
+          <t>Dynaamo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
+          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2573</v>
+        <v>2510</v>
       </c>
       <c r="H10" t="n">
-        <v>2463</v>
+        <v>2287</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="11">
@@ -843,21 +843,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#PQ9VRYGQL</t>
+          <t>#80GUGJY28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>E M E R S O N</t>
+          <t>Layd Katrinna</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -865,22 +865,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2528</v>
+        <v>2463</v>
       </c>
       <c r="H11" t="n">
-        <v>3146</v>
+        <v>1680</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>428</v>
+        <v>97</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="12">
@@ -889,44 +889,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#80GUGJY28</t>
+          <t>#LQUJVPV98</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Layd Katrinna</t>
+          <t>Vila Ercolis 32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
+          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2521</v>
+        <v>2325</v>
       </c>
       <c r="H12" t="n">
-        <v>1659</v>
+        <v>2472</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>48</v>
+        <v>477</v>
       </c>
       <c r="L12" t="n">
-        <v>136</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="13">
@@ -935,32 +935,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#9LPGGJJVJ</t>
+          <t>#92R82GCU</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dynaamo</t>
+          <t>Crena</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'id': 29000012, 'name': 'Crystal League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/kSfTyNNVSvogX3dMvpFUTt72VW74w6vEsEFuuOV4osQ.png'}}</t>
+          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2455</v>
+        <v>2314</v>
       </c>
       <c r="H13" t="n">
-        <v>2328</v>
+        <v>2658</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -981,21 +981,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#92R82GCU</t>
+          <t>#8QVRRPQVU</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Crena</t>
+          <t>☆_BLACK_☆</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1003,22 +1003,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2340</v>
+        <v>2305</v>
       </c>
       <c r="H14" t="n">
-        <v>2597</v>
+        <v>1803</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K14" t="n">
-        <v>36</v>
+        <v>499</v>
       </c>
       <c r="L14" t="n">
-        <v>369</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2329</v>
+        <v>2298</v>
       </c>
       <c r="H15" t="n">
-        <v>2237</v>
+        <v>2144</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="L15" t="n">
-        <v>234</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16">
@@ -1073,21 +1073,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#9LVPURG9P</t>
+          <t>#PQ9VRYGQL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SkyNearth</t>
+          <t>E M E R S O N</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2324</v>
+        <v>2284</v>
       </c>
       <c r="H16" t="n">
-        <v>2595</v>
+        <v>3147</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K16" t="n">
-        <v>1194</v>
+        <v>126</v>
       </c>
       <c r="L16" t="n">
-        <v>2302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#282QLU28P</t>
+          <t>#YGR828R0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>*P3dr0z*</t>
+          <t>GRADISSE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1133,18 +1133,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
+          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2103</v>
+        <v>2280</v>
       </c>
       <c r="H17" t="n">
-        <v>2322</v>
+        <v>1845</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1183,11 +1183,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
+          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2085</v>
+        <v>2258</v>
       </c>
       <c r="H18" t="n">
         <v>2934</v>
@@ -1196,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#8P28LJVCR</t>
+          <t>#99GY0VJQG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lady Katrina 2✨</t>
+          <t>Emerson TH10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1225,30 +1225,30 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
+          <t>{'id': 29000011, 'name': 'Crystal League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/jhP36EhAA9n1ADafdQtCP-ztEAQjoRpY7cT8sU7SW8A.png'}}</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2066</v>
+        <v>2240</v>
       </c>
       <c r="H19" t="n">
-        <v>1337</v>
+        <v>1547</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#8QVRRPQVU</t>
+          <t>#282QLU28P</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>☆_BLACK_☆</t>
+          <t>*P3dr0z*</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1984</v>
+        <v>2148</v>
       </c>
       <c r="H20" t="n">
-        <v>1761</v>
+        <v>2322</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#LQUJVPV98</t>
+          <t>#YVJ2RC0U0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Vila Ercolis 32</t>
+          <t>ARRØW</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1317,30 +1317,30 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1945</v>
+        <v>2141</v>
       </c>
       <c r="H21" t="n">
-        <v>2560</v>
+        <v>1996</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
       </c>
       <c r="J21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="L21" t="n">
-        <v>132</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -1349,44 +1349,44 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#99GY0VJQG</t>
+          <t>#9LVPURG9P</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Emerson TH10</t>
+          <t>SkyNearth</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1943</v>
+        <v>2124</v>
       </c>
       <c r="H22" t="n">
-        <v>1616</v>
+        <v>2549</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
       </c>
       <c r="J22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4914</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Katrinna 3✨✨✨</t>
+          <t>katrinna</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1409,30 +1409,30 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1872</v>
+        <v>2016</v>
       </c>
       <c r="H23" t="n">
-        <v>1593</v>
+        <v>1505</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L23" t="n">
-        <v>233</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="24">
@@ -1441,44 +1441,44 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#CJGUU9CQ</t>
+          <t>#89LQVVUUJ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>✴️EXU✴️</t>
+          <t>cesar comin</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
+          <t>{'id': 29000010, 'name': 'Crystal League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Hyqco7bHh0Q81xB8mSF_ZhjKnKcTmJ9QEq9QGlsxiKE.png'}}</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1853</v>
+        <v>2010</v>
       </c>
       <c r="H24" t="n">
-        <v>245</v>
+        <v>2777</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>523</v>
+        <v>4282</v>
       </c>
       <c r="L24" t="n">
-        <v>869</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="25">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#YVJ2RC0U0</t>
+          <t>#8P28LJVCR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARRØW</t>
+          <t>Afrodite✨</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1509,22 +1509,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1847</v>
+        <v>1937</v>
       </c>
       <c r="H25" t="n">
-        <v>2057</v>
+        <v>1359</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L25" t="n">
-        <v>154</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#L82LPQYG0</t>
+          <t>#YJL008YPL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dynamo</t>
+          <t>*_* Master</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1547,30 +1547,30 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'id': 29000008, 'name': 'Gold League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1739</v>
+        <v>1881</v>
       </c>
       <c r="H26" t="n">
-        <v>1501</v>
+        <v>2194</v>
       </c>
       <c r="I26" t="n">
         <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#LJ2282YLL</t>
+          <t>#9URUCQ9R9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sadraque</t>
+          <t>CHARADA ^-^</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1593,30 +1593,30 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'id': 29000008, 'name': 'Gold League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1699</v>
+        <v>1816</v>
       </c>
       <c r="H27" t="n">
-        <v>2538</v>
+        <v>1997</v>
       </c>
       <c r="I27" t="n">
         <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>759</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -1639,27 +1639,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1696</v>
+        <v>1774</v>
       </c>
       <c r="H28" t="n">
-        <v>2197</v>
+        <v>2069</v>
       </c>
       <c r="I28" t="n">
         <v>27</v>
       </c>
       <c r="J28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1671,38 +1671,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#2LYP2R02Q</t>
+          <t>#YYGVYG0QJ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>&lt;c2&gt;jonathan</t>
+          <t>BR naruto</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{'id': 29000008, 'name': 'Gold League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/Y6CveuHmPM_oiOic2Yet0rYL9AFRYW0WA0u2e44-YbM.png'}}</t>
+          <t>{'id': 29000009, 'name': 'Gold League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/CorhMY9ZmQvqXTZ4VYVuUgPNGSHsO0cEXEL5WYRmB2Y.png'}}</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1638</v>
+        <v>1762</v>
       </c>
       <c r="H29" t="n">
-        <v>1833</v>
+        <v>1864</v>
       </c>
       <c r="I29" t="n">
         <v>28</v>
       </c>
       <c r="J29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1717,21 +1717,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#PRUGRUVRU</t>
+          <t>#2LYP2R02Q</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bart</t>
+          <t>&lt;c2&gt;jonathan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1622</v>
+        <v>1645</v>
       </c>
       <c r="H30" t="n">
-        <v>2652</v>
+        <v>1833</v>
       </c>
       <c r="I30" t="n">
         <v>29</v>
@@ -1751,10 +1751,10 @@
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>199</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1763,12 +1763,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#PYCPUJPJ2</t>
+          <t>#YQLP2V8JV</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARQUEIRO</t>
+          <t>Henrique ♈</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1785,22 +1785,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1622</v>
+        <v>1565</v>
       </c>
       <c r="H31" t="n">
-        <v>1509</v>
+        <v>1936</v>
       </c>
       <c r="I31" t="n">
         <v>30</v>
       </c>
       <c r="J31" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#L0C9CVL2U</t>
+          <t>#PYCPUJPJ2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Emerson TH8</t>
+          <t>ARQUEIRO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1326</v>
+        <v>1506</v>
       </c>
       <c r="H32" t="n">
-        <v>1209</v>
+        <v>1553</v>
       </c>
       <c r="I32" t="n">
         <v>31</v>
       </c>
       <c r="J32" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1855,44 +1855,44 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#LU20J08CL</t>
+          <t>#CJGUU9CQ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pedro 3°</t>
+          <t>⭐BRUNOGREGO⭐</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
+          <t>{'id': 29000000, 'name': 'Unranked', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/e--YMyIexEQQhE4imLoJcwhYn6Uy8KqlgyY3_kFV6t4.png'}}</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1200</v>
+        <v>1499</v>
       </c>
       <c r="H33" t="n">
-        <v>1415</v>
+        <v>50</v>
       </c>
       <c r="I33" t="n">
         <v>32</v>
       </c>
       <c r="J33" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1901,32 +1901,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#L9CR28C90</t>
+          <t>#L82LPQYG0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pedro 2°</t>
+          <t>Dynamo</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>coLeader</t>
+          <t>member</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
+          <t>{'id': 29000007, 'name': 'Gold League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png'}}</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1140</v>
+        <v>1483</v>
       </c>
       <c r="H34" t="n">
-        <v>1658</v>
+        <v>1501</v>
       </c>
       <c r="I34" t="n">
         <v>33</v>
@@ -1935,10 +1935,10 @@
         <v>32</v>
       </c>
       <c r="K34" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#LRP88V80U</t>
+          <t>#LJ2282YLL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ＫＡＫＡＳＨＡ♡</t>
+          <t>sadraque</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1961,30 +1961,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'id': 29000004, 'name': 'Silver League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png'}}</t>
+          <t>{'id': 29000007, 'name': 'Gold League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/vd4Lhz5b2I1P0cLH25B6q63JN3Wt1j2NTMhOYpMPQ4M.png'}}</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>971</v>
+        <v>1387</v>
       </c>
       <c r="H35" t="n">
-        <v>1924</v>
+        <v>2575</v>
       </c>
       <c r="I35" t="n">
         <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>420</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="36">
@@ -1993,32 +1993,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#L922U8U29</t>
+          <t>#L9CR28C90</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>dynamou</t>
+          <t>Pedro 2°</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>coLeader</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'id': 29000003, 'name': 'Bronze League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png'}}</t>
+          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>726</v>
+        <v>1327</v>
       </c>
       <c r="H36" t="n">
-        <v>170</v>
+        <v>1556</v>
       </c>
       <c r="I36" t="n">
         <v>35</v>
@@ -2027,10 +2027,10 @@
         <v>35</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="37">
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#LUR8U20JY</t>
+          <t>#L0C9CVL2U</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pedro 4°</t>
+          <t>Emerson TH8</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2053,18 +2053,18 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'id': 29000003, 'name': 'Bronze League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/SZIXZHZxfHTmgseKCH6T5hvMQ3JQM-Js2QfpC9A3ya0.png'}}</t>
+          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>617</v>
+        <v>1172</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1338</v>
       </c>
       <c r="I37" t="n">
         <v>36</v>
@@ -2076,7 +2076,145 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>#LRP88V80U</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ＫＡＫＡＳＨＡ♡</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>45</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>{'id': 29000006, 'name': 'Silver League I', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/nvrBLvCK10elRHmD1g9w5UU1flDRMhYAojMB2UbYfPs.png'}}</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1144</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1825</v>
+      </c>
+      <c r="I38" t="n">
+        <v>37</v>
+      </c>
+      <c r="J38" t="n">
+        <v>37</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>#LU20J08CL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Pedro 3°</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>39</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>{'id': 29000005, 'name': 'Silver League II', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/8OhXcwDJkenBH2kPH73eXftFOpHHRF-b32n0yrTqC44.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/8OhXcwDJkenBH2kPH73eXftFOpHHRF-b32n0yrTqC44.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/8OhXcwDJkenBH2kPH73eXftFOpHHRF-b32n0yrTqC44.png'}}</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>974</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1058</v>
+      </c>
+      <c r="I39" t="n">
+        <v>38</v>
+      </c>
+      <c r="J39" t="n">
+        <v>38</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>#L922U8U29</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>dynamou</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>30</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>{'id': 29000004, 'name': 'Silver League III', 'iconUrls': {'small': 'https://api-assets.clashofclans.com/leagues/72/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'tiny': 'https://api-assets.clashofclans.com/leagues/36/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png', 'medium': 'https://api-assets.clashofclans.com/leagues/288/QcFBfoArnafaXCnB5OfI7vESpQEBuvWtzOyLq8gJzVc.png'}}</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>762</v>
+      </c>
+      <c r="H40" t="n">
+        <v>170</v>
+      </c>
+      <c r="I40" t="n">
+        <v>39</v>
+      </c>
+      <c r="J40" t="n">
+        <v>39</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
